--- a/Frecuencia_def_naturaleza_por_Departamento_con_Total.xlsx
+++ b/Frecuencia_def_naturaleza_por_Departamento_con_Total.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d755398c2bd4cda/Escritorio/astridbecerra.github.io/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_FFC65FC0D1A16ED942160BBEEB6D80F66A1ECA47" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98BE469-C509-4E09-941A-2C6886D64B4A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,9 +136,6 @@
     <t>META</t>
   </si>
   <si>
-    <t>NARINO</t>
-  </si>
-  <si>
     <t>NORTE DE SANTANDER</t>
   </si>
   <si>
@@ -164,13 +167,16 @@
   </si>
   <si>
     <t>VICHADA</t>
+  </si>
+  <si>
+    <t>NARIÑO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +239,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +291,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -311,6 +325,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,14 +536,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -580,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -633,7 +654,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -686,7 +707,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,7 +760,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -792,7 +813,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -845,7 +866,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -898,7 +919,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -951,7 +972,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1025,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1057,7 +1078,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1163,7 +1184,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1237,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1269,7 +1290,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1322,7 +1343,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -1375,7 +1396,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1481,7 +1502,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1608,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1693,9 +1714,9 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>32</v>
@@ -1746,9 +1767,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>15</v>
@@ -1799,9 +1820,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -1852,9 +1873,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -1905,9 +1926,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>38</v>
@@ -1958,9 +1979,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>19</v>
@@ -2011,9 +2032,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>19</v>
@@ -2064,9 +2085,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>22</v>
@@ -2117,9 +2138,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>32</v>
@@ -2170,9 +2191,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -2223,9 +2244,9 @@
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>36</v>
@@ -2276,9 +2297,9 @@
         <v>485</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>24</v>
